--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1521.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1521.xlsx
@@ -354,10 +354,10 @@
         <v>1.910016192448763</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.9842982342282296</v>
